--- a/data/trans_dic/P36$nada-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36$nada-Habitat-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01005986088420041</v>
+        <v>0.009654622434512764</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01160840364235437</v>
+        <v>0.01136122484637907</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01632872287250205</v>
+        <v>0.01551700183175316</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.007129597613628505</v>
+        <v>0.006989678606004389</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.003154128329025956</v>
+        <v>0.003119557629661499</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0063023484274035</v>
+        <v>0.006108106420571638</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0103031816575682</v>
+        <v>0.01052310800298453</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.008893174118553612</v>
+        <v>0.009474830738367719</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01271876051932134</v>
+        <v>0.01293154965892666</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03063985695866802</v>
+        <v>0.02978063100534655</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03317026673261594</v>
+        <v>0.03391503886010028</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04427621025965073</v>
+        <v>0.04241204819495439</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02496633461342813</v>
+        <v>0.025605348881182</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01976324256848205</v>
+        <v>0.0195734488408578</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02488379805684905</v>
+        <v>0.02369850754983653</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02338926958183215</v>
+        <v>0.02267782220421409</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02393093422527102</v>
+        <v>0.02327406634200358</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02963261375618016</v>
+        <v>0.02934517160551273</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01263701656923459</v>
+        <v>0.01279624538050906</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01343914357171062</v>
+        <v>0.01445654522465995</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01044483547316583</v>
+        <v>0.0112465357184816</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.008835587747947541</v>
+        <v>0.008954062581821933</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.009052936732105547</v>
+        <v>0.008284239256894498</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.006343840109008575</v>
+        <v>0.006472604907675149</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01259369669947353</v>
+        <v>0.01296275823841465</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0137334187683351</v>
+        <v>0.01331965423675186</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.009840600787296379</v>
+        <v>0.01005260905606512</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03047337548472632</v>
+        <v>0.03136199444363372</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03506078611176567</v>
+        <v>0.03707328517341291</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02839148796356106</v>
+        <v>0.02943077383672402</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02586751636719925</v>
+        <v>0.02634809582649806</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02626995499182467</v>
+        <v>0.02523830409248894</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02009034327739602</v>
+        <v>0.01966172496654551</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02441937024963046</v>
+        <v>0.02536277841034245</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02783471146623848</v>
+        <v>0.02741937647250306</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02113854780234405</v>
+        <v>0.02161568367104427</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01429737633726496</v>
+        <v>0.01438944255517976</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01521682346220765</v>
+        <v>0.01547054650394585</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008066471122438119</v>
+        <v>0.00787122002936245</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.008797932029962997</v>
+        <v>0.007844207736199087</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01333318926758107</v>
+        <v>0.0137451757768071</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.003754879549087997</v>
+        <v>0.003855107541447446</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0133893403214233</v>
+        <v>0.01330315112491332</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0171705541702575</v>
+        <v>0.01735405136623729</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.007401692200835838</v>
+        <v>0.006945616166144408</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03925201898747344</v>
+        <v>0.03845918250365126</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03791477782718309</v>
+        <v>0.03928275734231304</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03000874389915488</v>
+        <v>0.02975162493101717</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0294810025558246</v>
+        <v>0.02792499453972024</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03710659546518296</v>
+        <v>0.03754488882793227</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01671906028402818</v>
+        <v>0.01769566726650626</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02897364977885088</v>
+        <v>0.02892230923137648</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03363594877211515</v>
+        <v>0.03393135192349628</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01963570887652687</v>
+        <v>0.02006137919214563</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01322895760428219</v>
+        <v>0.01372865657456892</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02396903993226056</v>
+        <v>0.02286914428234456</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.008908047682590859</v>
+        <v>0.00947040510207753</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01045524526484511</v>
+        <v>0.01019377120791158</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01173065072343045</v>
+        <v>0.01307613813383453</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.002878124188826012</v>
+        <v>0.00293085851720279</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01344018526885499</v>
+        <v>0.01354317325049228</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02037886087286437</v>
+        <v>0.02003846183975671</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.007343342213790878</v>
+        <v>0.007492247831780244</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0316527469728358</v>
+        <v>0.03158277827425027</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0495503884236668</v>
+        <v>0.05210799374845308</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02611974870107097</v>
+        <v>0.02587314688892606</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02620644043717573</v>
+        <v>0.02617498746732845</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02925184092570069</v>
+        <v>0.03082900954044639</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01372609646204548</v>
+        <v>0.01451818961688539</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02544765267071415</v>
+        <v>0.02546788973126611</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03628970422729857</v>
+        <v>0.03541600854776752</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01729630116053104</v>
+        <v>0.01699864642481898</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01608286133493024</v>
+        <v>0.01619647215377049</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02055983347526292</v>
+        <v>0.02043581399539614</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01432638603048536</v>
+        <v>0.01454930022853858</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01178314648780806</v>
+        <v>0.01220967101594633</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01329493609107782</v>
+        <v>0.01309830717442398</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.006993772900879336</v>
+        <v>0.007013848961830132</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01506729803006513</v>
+        <v>0.01513667288978565</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0178755089066776</v>
+        <v>0.01799261463522229</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01146473830441433</v>
+        <v>0.01157951227457314</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02621956275492163</v>
+        <v>0.02580426748876458</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03263404772713859</v>
+        <v>0.03201846767671761</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0245757543463508</v>
+        <v>0.02434235876149093</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02073001770390494</v>
+        <v>0.01989433497439333</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02194557548608502</v>
+        <v>0.02217480766831566</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01398358279815832</v>
+        <v>0.01366190251182106</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02164596317607302</v>
+        <v>0.02196577478352129</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02553845944597211</v>
+        <v>0.02556693618212707</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01741665327616131</v>
+        <v>0.01762268595374336</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6972</v>
+        <v>6691</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8143</v>
+        <v>7970</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10989</v>
+        <v>10443</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4908</v>
+        <v>4811</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2196</v>
+        <v>2172</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4233</v>
+        <v>4102</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>14233</v>
+        <v>14536</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>12429</v>
+        <v>13242</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>17102</v>
+        <v>17389</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>21234</v>
+        <v>20639</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>23268</v>
+        <v>23790</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>29799</v>
+        <v>28544</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>17186</v>
+        <v>17625</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>13757</v>
+        <v>13625</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>16713</v>
+        <v>15917</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>32309</v>
+        <v>31327</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>33445</v>
+        <v>32527</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>39846</v>
+        <v>39459</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>12117</v>
+        <v>12270</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>13680</v>
+        <v>14716</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>10668</v>
+        <v>11486</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>8547</v>
+        <v>8662</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>9326</v>
+        <v>8534</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>6610</v>
+        <v>6744</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>24259</v>
+        <v>24970</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>28127</v>
+        <v>27280</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>20304</v>
+        <v>20741</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>29220</v>
+        <v>30072</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>35690</v>
+        <v>37739</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>28997</v>
+        <v>30059</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>25024</v>
+        <v>25489</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>27061</v>
+        <v>25999</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>20933</v>
+        <v>20487</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>47038</v>
+        <v>48855</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>57007</v>
+        <v>56157</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>43615</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9686</v>
+        <v>9748</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>11498</v>
+        <v>11689</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6118</v>
+        <v>5970</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>6016</v>
+        <v>5364</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>10349</v>
+        <v>10669</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2948</v>
+        <v>3026</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>18227</v>
+        <v>18110</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>26301</v>
+        <v>26582</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>11424</v>
+        <v>10720</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>26592</v>
+        <v>26055</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>28648</v>
+        <v>29682</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>22761</v>
+        <v>22566</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>20160</v>
+        <v>19096</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>28801</v>
+        <v>29141</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>13125</v>
+        <v>13891</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>39442</v>
+        <v>39372</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>51523</v>
+        <v>51975</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>30307</v>
+        <v>30964</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>12441</v>
+        <v>12911</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>22671</v>
+        <v>21631</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8352</v>
+        <v>8879</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>10827</v>
+        <v>10557</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12315</v>
+        <v>13727</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3001</v>
+        <v>3056</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>26558</v>
+        <v>26762</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>40669</v>
+        <v>39990</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>14542</v>
+        <v>14836</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>29768</v>
+        <v>29702</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>46868</v>
+        <v>49287</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>24489</v>
+        <v>24258</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>27139</v>
+        <v>27107</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>30708</v>
+        <v>32364</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>14312</v>
+        <v>15138</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>50286</v>
+        <v>50326</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>72421</v>
+        <v>70678</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>34251</v>
+        <v>33661</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>52588</v>
+        <v>52959</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>70333</v>
+        <v>69908</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>48572</v>
+        <v>49328</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>39770</v>
+        <v>41210</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>47226</v>
+        <v>46528</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>24767</v>
+        <v>24838</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>100122</v>
+        <v>100583</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>124647</v>
+        <v>125464</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>79470</v>
+        <v>80265</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>85733</v>
+        <v>84375</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>111637</v>
+        <v>109531</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>83321</v>
+        <v>82530</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>69967</v>
+        <v>67147</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>77955</v>
+        <v>78769</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>49520</v>
+        <v>48381</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>143837</v>
+        <v>145962</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>178081</v>
+        <v>178280</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>120726</v>
+        <v>122155</v>
       </c>
     </row>
     <row r="24">
